--- a/data/trans_dic/P44A$sangre-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P44A$sangre-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,52; 49,57</t>
+          <t>6,66; 52,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 32,71</t>
+          <t>3,73; 29,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>64,43; 98,33</t>
+          <t>63,87; 98,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,47</t>
+          <t>0,0; 30,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,85</t>
+          <t>0,0; 39,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>64,38; 79,93</t>
+          <t>63,96; 80,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,55; 31,1</t>
+          <t>5,66; 32,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 26,29</t>
+          <t>2,94; 26,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>67,79; 97,14</t>
+          <t>67,26; 97,47</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,58; 35,06</t>
+          <t>5,36; 32,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 18,23</t>
+          <t>1,94; 19,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>58,22; 71,17</t>
+          <t>58,26; 71,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,12</t>
+          <t>0,0; 17,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,72; 23,36</t>
+          <t>2,78; 23,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>72,42; 82,3</t>
+          <t>72,12; 82,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,18; 20,64</t>
+          <t>4,05; 21,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,68; 15,59</t>
+          <t>3,44; 15,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>66,11; 74,96</t>
+          <t>66,19; 74,97</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,77; 33,25</t>
+          <t>5,93; 33,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,52; 27,1</t>
+          <t>3,55; 27,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>56,31; 68,53</t>
+          <t>56,07; 68,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,05; 27,39</t>
+          <t>3,06; 29,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,31; 29,99</t>
+          <t>3,27; 29,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>66,43; 76,78</t>
+          <t>66,19; 76,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,58; 24,77</t>
+          <t>7,5; 24,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,86; 22,5</t>
+          <t>5,63; 22,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>62,74; 70,57</t>
+          <t>62,54; 70,75</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,12; 37,63</t>
+          <t>8,18; 41,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,73; 24,91</t>
+          <t>4,89; 26,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>58,87; 73,85</t>
+          <t>58,35; 74,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,18</t>
+          <t>0,0; 31,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,39</t>
+          <t>0,0; 17,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>50,79; 64,08</t>
+          <t>49,83; 63,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,0; 29,71</t>
+          <t>6,85; 27,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,08; 15,29</t>
+          <t>2,55; 15,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>56,17; 67,08</t>
+          <t>56,25; 66,92</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,44; 28,04</t>
+          <t>11,08; 28,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,16; 16,26</t>
+          <t>6,76; 16,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>63,63; 89,93</t>
+          <t>63,62; 89,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,09; 15,06</t>
+          <t>4,21; 15,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,84; 15,14</t>
+          <t>3,8; 14,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>67,41; 73,6</t>
+          <t>67,69; 73,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,05; 19,45</t>
+          <t>9,22; 19,08</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,64; 14,0</t>
+          <t>6,46; 13,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>66,96; 86,26</t>
+          <t>66,75; 85,69</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población al que le han realizado al menor una prueba de sangre oculta en heces para detectar cáncer de colon</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3092</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3264</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>304199</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2044</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1026</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>52062</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5136</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>4290</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>356261</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>944; 7473</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>999; 7926</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>212792; 327645</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6251</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4394</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>45718; 57532</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1963; 11277</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1111; 9865</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>272157; 394425</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6371</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4133</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>118353</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1045</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3257</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>121375</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7416</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>7391</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>239728</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2109; 12856</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1015; 10451</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>106769; 131355</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5870</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1052; 8908</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>112359; 128204</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2964; 15631</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3106; 14132</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>224415; 254184</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4979</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5201</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>102501</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3879</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4068</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>102421</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>8859</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>9269</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>204922</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1815; 10153</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1559; 12241</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>91869; 111772</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>960; 9257</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1020; 9309</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>94695; 109480</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>4647; 15214</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4230; 16873</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>191920; 217124</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>5204</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>4476</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>63992</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2184</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1205</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>62149</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>7388</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>5682</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>126142</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2066; 10494</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1788; 9793</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>56294; 71480</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6687</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 6194</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>53709; 68973</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>3188; 12765</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1850; 11499</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>114887; 136686</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>19647</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>17075</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>589045</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>9152</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>9556</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>338007</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>28799</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>26631</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>927052</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>12122; 30912</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>10801; 26726</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>494134; 696550</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>4504; 16699</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>4410; 16270</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>323638; 353144</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>19953; 41268</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>17810; 37903</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>837575; 1075311</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P44A$sangre-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P44A$sangre-Edad-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población al que le han realizado al menor una prueba de sangre oculta en heces para detectar cáncer de colon</t>
+          <t>Población a la que le han realizado al menos una prueba de sangre oculta en heces para detectar cáncer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1559,7 +1559,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población al que le han realizado al menor una prueba de sangre oculta en heces para detectar cáncer de colon</t>
+          <t>Población a la que le han realizado al menos una prueba de sangre oculta en heces para detectar cáncer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
